--- a/TestData/LV_TMTT0035665_VerifyInternalDealTeamForAnalystRoleLimitForCFLOBOpportunityEngagement.xlsx
+++ b/TestData/LV_TMTT0035665_VerifyInternalDealTeamForAnalystRoleLimitForCFLOBOpportunityEngagement.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vkumar0427\source\repos\SF_Automation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3F81BA3-6AD2-4CF1-9C6F-C506B29F3861}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{998237A1-4A6C-4F37-9B0E-D693D4F0F08A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{4F41EB50-8C78-4F9F-A1D4-8B783E020697}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4F41EB50-8C78-4F9F-A1D4-8B783E020697}"/>
   </bookViews>
   <sheets>
-    <sheet name="AddOpportunity" sheetId="1" r:id="rId1"/>
-    <sheet name="Users" sheetId="2" r:id="rId2"/>
-    <sheet name="AppName" sheetId="8" r:id="rId3"/>
-    <sheet name="ModuleName" sheetId="9" r:id="rId4"/>
+    <sheet name="Users" sheetId="2" r:id="rId1"/>
+    <sheet name="AppName" sheetId="8" r:id="rId2"/>
+    <sheet name="ModuleName" sheetId="9" r:id="rId3"/>
+    <sheet name="AddOpportunity" sheetId="1" r:id="rId4"/>
     <sheet name="AddContact" sheetId="3" r:id="rId5"/>
     <sheet name="OppDealTeamMembers" sheetId="4" r:id="rId6"/>
     <sheet name="Roles" sheetId="7" r:id="rId7"/>
@@ -469,7 +469,7 @@
     <t>BUS - Business Services</t>
   </si>
   <si>
-    <t>Brian Miller</t>
+    <t>Jennie Stewart</t>
   </si>
 </sst>
 </file>
@@ -847,6 +847,105 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{398AFF69-DCD2-4291-899D-46D247625F33}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE8E7CB8-6BED-4AC4-B6DC-18799B9D6A35}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C71E31A4-9F7E-4D74-B894-2CAAC5377070}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O7" sqref="O7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11A698FC-E7B6-4C83-A074-4EAE7093E960}">
   <dimension ref="A1:AD2"/>
   <sheetViews>
@@ -854,14 +953,14 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -950,7 +1049,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -1040,105 +1139,6 @@
       </c>
       <c r="AD2" t="s">
         <v>41</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{398AFF69-DCD2-4291-899D-46D247625F33}">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>129</v>
-      </c>
-      <c r="B2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>138</v>
-      </c>
-      <c r="B3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE8E7CB8-6BED-4AC4-B6DC-18799B9D6A35}">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C71E31A4-9F7E-4D74-B894-2CAAC5377070}">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -1154,9 +1154,9 @@
       <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -1182,7 +1182,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>37</v>
       </c>
@@ -1221,49 +1221,49 @@
       <selection activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" customWidth="1"/>
+    <col min="4" max="4" width="17.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>116</v>
       </c>
@@ -1271,7 +1271,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>64</v>
       </c>
@@ -1279,7 +1279,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>65</v>
       </c>
@@ -1287,7 +1287,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>117</v>
       </c>
@@ -1295,7 +1295,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>67</v>
       </c>
@@ -1303,62 +1303,62 @@
         <v>124</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>118</v>
       </c>
@@ -1366,67 +1366,67 @@
         <v>78</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>119</v>
       </c>
@@ -1434,32 +1434,32 @@
         <v>100</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>120</v>
       </c>
@@ -1467,47 +1467,47 @@
         <v>106</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>123</v>
       </c>
@@ -1515,7 +1515,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>114</v>
       </c>
@@ -1534,13 +1534,13 @@
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>45</v>
       </c>
@@ -1548,7 +1548,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>88</v>
       </c>
@@ -1562,7 +1562,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>89</v>
       </c>
@@ -1583,22 +1583,22 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>124</v>
       </c>
@@ -1616,13 +1616,13 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="76.28515625" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" customWidth="1"/>
+    <col min="1" max="1" width="76.33203125" customWidth="1"/>
+    <col min="2" max="2" width="18.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>84</v>
       </c>
@@ -1630,7 +1630,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>86</v>
       </c>
@@ -1638,7 +1638,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>86</v>
       </c>
